--- a/Doc/scRnaSeqScheduleDev.xlsx
+++ b/Doc/scRnaSeqScheduleDev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baller01/MyProjectsSvn/SvnRepoForTraining/BioinfoCore/FernandesM/20200511_FernandesM_ME_crukBiSs2020/trunk/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{02D33C90-1D78-5B41-AF9F-599F155836C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210ABAE5-54BF-9A4B-9FD5-B9C10CFA6823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="3140" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="460" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -68,46 +68,46 @@
     <t>Week:</t>
   </si>
   <si>
-    <t>intro</t>
-  </si>
-  <si>
-    <t>Preamble + seq QC + cellranger</t>
-  </si>
-  <si>
-    <t>preProc inc cell calling</t>
-  </si>
-  <si>
-    <t>normalisation</t>
-  </si>
-  <si>
-    <t>dimRedForViz + confounding factors (?)</t>
-  </si>
-  <si>
-    <t>featSelec + dimRedForAna</t>
-  </si>
-  <si>
-    <t>batch correction (GSM3872434)</t>
-  </si>
-  <si>
-    <t>data set integration</t>
-  </si>
-  <si>
-    <t>batch correction (GSM3872434) + data set integration</t>
-  </si>
-  <si>
     <t>LUNCH</t>
   </si>
   <si>
-    <t>clustering</t>
-  </si>
-  <si>
-    <t>cluster marker genes</t>
-  </si>
-  <si>
-    <t>diff exp and abund btw conditions</t>
-  </si>
-  <si>
-    <t>trajectory</t>
+    <t>preProc inc cell calling - Ash</t>
+  </si>
+  <si>
+    <t>trajectory - Zeynep</t>
+  </si>
+  <si>
+    <t>diff exp and abund btw conditions - Stephane</t>
+  </si>
+  <si>
+    <t>intro - Kasia</t>
+  </si>
+  <si>
+    <t>normalisation - Stephane</t>
+  </si>
+  <si>
+    <t>dimRedForViz + confounding factors (?) - Zeynep</t>
+  </si>
+  <si>
+    <t>batch correction (GSM3872434) - Abbi</t>
+  </si>
+  <si>
+    <t>batch correction (GSM3872434) + data set integration - Abbi</t>
+  </si>
+  <si>
+    <t>data set integration- Abbi</t>
+  </si>
+  <si>
+    <t>clustering - Zeynep</t>
+  </si>
+  <si>
+    <t>cluster marker genes - Stephane</t>
+  </si>
+  <si>
+    <t>intro - Kasia + Preamble - Stephane</t>
+  </si>
+  <si>
+    <t>seq QC + cellranger - Ash</t>
   </si>
 </sst>
 </file>
@@ -387,13 +387,13 @@
   <autoFilter ref="B4:I52" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name=" " dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mon" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tue" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Wed" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Thu" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fri" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sat" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sun" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mon" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tue" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Wed" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Thu" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fri" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sat" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sun" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Schedule" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -613,8 +613,8 @@
   </sheetPr>
   <dimension ref="B1:J52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -829,7 +829,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -909,7 +909,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -922,12 +922,12 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -940,12 +940,12 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -976,7 +976,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -994,7 +994,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1012,7 +1012,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1030,12 +1030,12 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1048,12 +1048,12 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1066,12 +1066,12 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1084,12 +1084,12 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">

--- a/Doc/scRnaSeqScheduleDev.xlsx
+++ b/Doc/scRnaSeqScheduleDev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baller01/MyProjectsSvn/SvnRepoForTraining/BioinfoCore/FernandesM/20200511_FernandesM_ME_crukBiSs2020/trunk/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210ABAE5-54BF-9A4B-9FD5-B9C10CFA6823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AA2C4A-35E7-764E-9AB1-56C4D0780E2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="460" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="3840" windowWidth="18640" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Daily Schedule</t>
   </si>
@@ -86,28 +86,25 @@
     <t>normalisation - Stephane</t>
   </si>
   <si>
-    <t>dimRedForViz + confounding factors (?) - Zeynep</t>
-  </si>
-  <si>
-    <t>batch correction (GSM3872434) - Abbi</t>
-  </si>
-  <si>
     <t>batch correction (GSM3872434) + data set integration - Abbi</t>
   </si>
   <si>
+    <t>intro - Kasia + Preamble - Stephane</t>
+  </si>
+  <si>
+    <t>seq QC + cellranger - Ash</t>
+  </si>
+  <si>
     <t>data set integration- Abbi</t>
   </si>
   <si>
-    <t>clustering - Zeynep</t>
-  </si>
-  <si>
-    <t>cluster marker genes - Stephane</t>
-  </si>
-  <si>
-    <t>intro - Kasia + Preamble - Stephane</t>
-  </si>
-  <si>
-    <t>seq QC + cellranger - Ash</t>
+    <t>clustering - Stephane</t>
+  </si>
+  <si>
+    <t>cluster marker genes - Zeynep</t>
+  </si>
+  <si>
+    <t>dim. red. + confounding factors + feature selection - Zeynep</t>
   </si>
 </sst>
 </file>
@@ -613,8 +610,8 @@
   </sheetPr>
   <dimension ref="B1:J52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -829,7 +826,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -845,7 +842,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -861,7 +858,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -877,7 +874,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -976,7 +973,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -994,7 +991,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1012,7 +1009,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>

--- a/Doc/scRnaSeqScheduleDev.xlsx
+++ b/Doc/scRnaSeqScheduleDev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baller01/MyProjectsSvn/SvnRepoForTraining/BioinfoCore/FernandesM/20200511_FernandesM_ME_crukBiSs2020/trunk/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210ABAE5-54BF-9A4B-9FD5-B9C10CFA6823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969B956F-A379-F64B-B1CD-537C9BDBA3A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="460" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="18640" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Daily Schedule</t>
   </si>
@@ -89,25 +89,22 @@
     <t>dimRedForViz + confounding factors (?) - Zeynep</t>
   </si>
   <si>
-    <t>batch correction (GSM3872434) - Abbi</t>
-  </si>
-  <si>
     <t>batch correction (GSM3872434) + data set integration - Abbi</t>
   </si>
   <si>
+    <t>intro - Kasia + Preamble - Stephane</t>
+  </si>
+  <si>
+    <t>seq QC + cellranger - Ash</t>
+  </si>
+  <si>
     <t>data set integration- Abbi</t>
   </si>
   <si>
-    <t>clustering - Zeynep</t>
-  </si>
-  <si>
-    <t>cluster marker genes - Stephane</t>
-  </si>
-  <si>
-    <t>intro - Kasia + Preamble - Stephane</t>
-  </si>
-  <si>
-    <t>seq QC + cellranger - Ash</t>
+    <t>clustering - Stephane</t>
+  </si>
+  <si>
+    <t>cluster marker genes - Zeynep</t>
   </si>
 </sst>
 </file>
@@ -613,8 +610,8 @@
   </sheetPr>
   <dimension ref="B1:J52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -861,7 +858,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -877,7 +874,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -893,7 +890,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -909,7 +906,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -963,7 +960,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -976,12 +973,12 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -994,12 +991,12 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1012,12 +1009,12 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
